--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H2">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I2">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J2">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>0.7481275912709999</v>
+        <v>2.824294830523111</v>
       </c>
       <c r="R2">
-        <v>6.733148321439</v>
+        <v>25.418653474708</v>
       </c>
       <c r="S2">
-        <v>0.001284487327474073</v>
+        <v>0.002527020481361712</v>
       </c>
       <c r="T2">
-        <v>0.001284487327474073</v>
+        <v>0.002527020481361711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H3">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I3">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J3">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>3.045189326565</v>
+        <v>17.51815934036333</v>
       </c>
       <c r="R3">
-        <v>27.406703939085</v>
+        <v>157.66343406327</v>
       </c>
       <c r="S3">
-        <v>0.005228395724700858</v>
+        <v>0.01567426565046565</v>
       </c>
       <c r="T3">
-        <v>0.005228395724700858</v>
+        <v>0.01567426565046565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H4">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I4">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J4">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>0.9999439166479998</v>
+        <v>7.014804028584445</v>
       </c>
       <c r="R4">
-        <v>8.999495249831998</v>
+        <v>63.13323625726</v>
       </c>
       <c r="S4">
-        <v>0.001716839886812679</v>
+        <v>0.006276452890609957</v>
       </c>
       <c r="T4">
-        <v>0.001716839886812679</v>
+        <v>0.006276452890609956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H5">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I5">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J5">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>3.54420426549</v>
+        <v>16.66815509235533</v>
       </c>
       <c r="R5">
-        <v>31.89783838941</v>
+        <v>150.013395831198</v>
       </c>
       <c r="S5">
-        <v>0.006085172526877674</v>
+        <v>0.01491372956168811</v>
       </c>
       <c r="T5">
-        <v>0.006085172526877675</v>
+        <v>0.01491372956168811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I6">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J6">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>25.635134471724</v>
+        <v>16.822703311544</v>
       </c>
       <c r="R6">
-        <v>230.716210245516</v>
+        <v>151.404329803896</v>
       </c>
       <c r="S6">
-        <v>0.04401388981133764</v>
+        <v>0.01505201063313539</v>
       </c>
       <c r="T6">
-        <v>0.04401388981133764</v>
+        <v>0.01505201063313539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I7">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J7">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>104.34562070586</v>
@@ -883,10 +883,10 @@
         <v>939.11058635274</v>
       </c>
       <c r="S7">
-        <v>0.1791547712421455</v>
+        <v>0.09336260429130548</v>
       </c>
       <c r="T7">
-        <v>0.1791547712421455</v>
+        <v>0.09336260429130548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I8">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J8">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>34.263803482912</v>
+        <v>41.78316147668001</v>
       </c>
       <c r="R8">
-        <v>308.374231346208</v>
+        <v>376.0484532901201</v>
       </c>
       <c r="S8">
-        <v>0.05882876380764288</v>
+        <v>0.03738522752175183</v>
       </c>
       <c r="T8">
-        <v>0.05882876380764289</v>
+        <v>0.03738522752175182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I9">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J9">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>121.44472948356</v>
+        <v>99.282633257364</v>
       </c>
       <c r="R9">
-        <v>1093.00256535204</v>
+        <v>893.5436993162759</v>
       </c>
       <c r="S9">
-        <v>0.2085128497200991</v>
+        <v>0.08883252731741642</v>
       </c>
       <c r="T9">
-        <v>0.2085128497200991</v>
+        <v>0.08883252731741641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H10">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I10">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J10">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>21.248661461611</v>
+        <v>50.98806063299001</v>
       </c>
       <c r="R10">
-        <v>191.237953154499</v>
+        <v>458.89254569691</v>
       </c>
       <c r="S10">
-        <v>0.03648259560492437</v>
+        <v>0.04562125459848452</v>
       </c>
       <c r="T10">
-        <v>0.03648259560492437</v>
+        <v>0.0456212545984845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H11">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I11">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J11">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>86.49085776499834</v>
+        <v>316.261942971225</v>
       </c>
       <c r="R11">
-        <v>778.4177198849851</v>
+        <v>2846.357486741025</v>
       </c>
       <c r="S11">
-        <v>0.14849928279314</v>
+        <v>0.282973434191893</v>
       </c>
       <c r="T11">
-        <v>0.14849928279314</v>
+        <v>0.282973434191893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H12">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I12">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J12">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>28.40086372079022</v>
+        <v>126.64090493405</v>
       </c>
       <c r="R12">
-        <v>255.607773487112</v>
+        <v>1139.76814440645</v>
       </c>
       <c r="S12">
-        <v>0.0487624704185767</v>
+        <v>0.1133111731423775</v>
       </c>
       <c r="T12">
-        <v>0.0487624704185767</v>
+        <v>0.1133111731423774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H13">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I13">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J13">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>100.6641079234234</v>
+        <v>300.916495439565</v>
       </c>
       <c r="R13">
-        <v>905.9769713108102</v>
+        <v>2708.248458956085</v>
       </c>
       <c r="S13">
-        <v>0.1728338487549267</v>
+        <v>0.2692431891094474</v>
       </c>
       <c r="T13">
-        <v>0.1728338487549268</v>
+        <v>0.2692431891094474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H14">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I14">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J14">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>4.630252825542999</v>
+        <v>1.063076177476444</v>
       </c>
       <c r="R14">
-        <v>41.67227542988699</v>
+        <v>9.567685597287999</v>
       </c>
       <c r="S14">
-        <v>0.007949848591076213</v>
+        <v>0.0009511808911370346</v>
       </c>
       <c r="T14">
-        <v>0.007949848591076213</v>
+        <v>0.0009511808911370344</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H15">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I15">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J15">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>18.84704781397833</v>
+        <v>6.593907146913333</v>
       </c>
       <c r="R15">
-        <v>169.623430325805</v>
+        <v>59.34516432222</v>
       </c>
       <c r="S15">
-        <v>0.03235917824688777</v>
+        <v>0.005899857986625666</v>
       </c>
       <c r="T15">
-        <v>0.03235917824688777</v>
+        <v>0.005899857986625666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H16">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I16">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J16">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>6.18877474840622</v>
+        <v>2.640401055817778</v>
       </c>
       <c r="R16">
-        <v>55.69897273565599</v>
+        <v>23.76360950236</v>
       </c>
       <c r="S16">
-        <v>0.01062573126518971</v>
+        <v>0.002362482654059446</v>
       </c>
       <c r="T16">
-        <v>0.01062573126518971</v>
+        <v>0.002362482654059445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H17">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I17">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J17">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>21.93551207850333</v>
+        <v>6.273962055825333</v>
       </c>
       <c r="R17">
-        <v>197.41960870653</v>
+        <v>56.46565850242799</v>
       </c>
       <c r="S17">
-        <v>0.03766187427818795</v>
+        <v>0.005613589078240926</v>
       </c>
       <c r="T17">
-        <v>0.03766187427818796</v>
+        <v>0.005613589078240926</v>
       </c>
     </row>
   </sheetData>
